--- a/biology/Zoologie/Marie-Claude_Bomsel/Marie-Claude_Bomsel.xlsx
+++ b/biology/Zoologie/Marie-Claude_Bomsel/Marie-Claude_Bomsel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Claude Dominique Bomsel, née le 7 juillet 1946[1], est une docteur-vétérinaire française, professeur au Muséum national d'histoire naturelle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Claude Dominique Bomsel, née le 7 juillet 1946, est une docteur-vétérinaire française, professeur au Muséum national d'histoire naturelle.
 Outre son travail de chercheuse et d'enseignante, elle est chroniqueuse animalière sur France 2 dans l'émission C'est au programme, et elle intervient régulièrement dans des émissions où divers journalistes l'interrogent sur les sujets pour lesquels elle est considérée comme personne-ressource.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issue d'un milieu bourgeois de la ville de Versailles, Marie-Claude Bomsel est passionnée par les animaux depuis son enfance passée au Chesnay. Elle a un père marchand d'articles de sport féru d'art contemporain mère institutrice de gauche naturiste[2]. 
-Elle intègre en 1969 l'École nationale vétérinaire de Maison-Alfort[3]. Après avoir exercé quelque temps en milieu canin puis rural, elle s'envole pour la Centrafrique avec son mari. Lorsque le gouvernement de Bokassa décide l'expulsion des ressortissants étrangers, elle revient en France où elle obtient un stage au Parc zoologique de Vincennes. Elle travaille ensuite au jardin des Plantes de Paris, où elle dirige la ménagerie de 1981 à 1989 et de 2001 à 2004. Désormais, elle est professeur au Muséum national d'histoire naturelle au sein du département des parcs botaniques et zoologiques[4].
-Marie-Claude Bomsel, professeur au Muséum national d'histoire naturelle, rédige 79 articles sur les Mammifères pour le supplément[5], paru en mai 1999, de l’Encyclopædia Universalis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issue d'un milieu bourgeois de la ville de Versailles, Marie-Claude Bomsel est passionnée par les animaux depuis son enfance passée au Chesnay. Elle a un père marchand d'articles de sport féru d'art contemporain mère institutrice de gauche naturiste. 
+Elle intègre en 1969 l'École nationale vétérinaire de Maison-Alfort. Après avoir exercé quelque temps en milieu canin puis rural, elle s'envole pour la Centrafrique avec son mari. Lorsque le gouvernement de Bokassa décide l'expulsion des ressortissants étrangers, elle revient en France où elle obtient un stage au Parc zoologique de Vincennes. Elle travaille ensuite au jardin des Plantes de Paris, où elle dirige la ménagerie de 1981 à 1989 et de 2001 à 2004. Désormais, elle est professeur au Muséum national d'histoire naturelle au sein du département des parcs botaniques et zoologiques.
+Marie-Claude Bomsel, professeur au Muséum national d'histoire naturelle, rédige 79 articles sur les Mammifères pour le supplément, paru en mai 1999, de l’Encyclopædia Universalis.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2004)[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (2004).</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pas si bêtes, éditions Jean-Claude Lattès, 1986.
 Le dépit du gorille amoureux : et autres effets de la passion dans le règne animal, Éditions Jean-Claude Lattès, 1998  (ISBN 2-7096-1892-3)
